--- a/board/vdatp_bom_MTE.xlsx
+++ b/board/vdatp_bom_MTE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk\Documents\GitHub\vdatp\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A5EF8-430A-457C-A20E-8FC6220379E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92125E4F-BD14-46B8-969B-0216A337A06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="299">
   <si>
     <t>&gt;  C101, C104, C106, C201, C203, C204, C206, C209, C210, C213-C216, C219, C220, C223, C224, C227, C228, C231, C232, C235, C236, C239-C241, C247, C11001, C11003, C11004, C11006, C11009, C11010, C11013-C11016, C11019, C11020, C11023, C11024, C11027, C11028, C11031, C11032, C11035, C11036, C11039-C11041, C11047</t>
   </si>
@@ -147,9 +147,6 @@
     <t>H2205-ND</t>
   </si>
   <si>
-    <t>H2185-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J301</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>WM14786</t>
   </si>
   <si>
-    <t>WM2900-ND</t>
-  </si>
-  <si>
     <t>&gt;  J10601-J10604</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>H2203-ND</t>
   </si>
   <si>
-    <t>H2183-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">    L301</t>
   </si>
   <si>
@@ -588,36 +579,15 @@
     <t>https://www.digikey.at/products/de?keywords=H2205-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.at/products/de?keywords=H2185-ND</t>
-  </si>
-  <si>
-    <t>DF13-8S-1.25C</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/products/de?keywords=WM14786</t>
   </si>
   <si>
     <t>Molex</t>
   </si>
   <si>
-    <t>Extras</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/product-detail/de/hirose-electric-co-ltd/DF13-2630SCF/H9992CT-ND/241817</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/product-detail/de/molex/0016020102/WM2510-ND/115053</t>
   </si>
   <si>
-    <t xml:space="preserve">Crimpis für  WM2900-ND </t>
-  </si>
-  <si>
-    <t>DF13-2630SCF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/products/de?keywords=WM2900-ND</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/product-detail/de/hirose-electric-co-ltd/DF13-6P-1-25DS-20/H2203-ND/241776</t>
   </si>
   <si>
@@ -627,9 +597,6 @@
     <t>DF13-6S-1.25C</t>
   </si>
   <si>
-    <t>https://at.rs-online.com/web/p/steckergehause-und-stecker/0143021//?</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/product-detail/de/NRS8040T2R0NJGJ/587-2976-1-ND/2666081</t>
   </si>
   <si>
@@ -714,9 +681,6 @@
     <t>Susumu</t>
   </si>
   <si>
-    <t xml:space="preserve">Crimpis für  DF13-8S-1.25C und Crimpis für  DF13-6S-1.25C </t>
-  </si>
-  <si>
     <t>https://www.digikey.at/products/de?keywords=CR0402-FX-27R4GLFCT-ND</t>
   </si>
   <si>
@@ -907,13 +871,96 @@
   </si>
   <si>
     <t>MTE-Sample Resistors ELAB</t>
+  </si>
+  <si>
+    <t>Styrofoam balls</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33055543688.html?spm=a2g0s.9042311.0.0.14e44c4dgOtgtt</t>
+  </si>
+  <si>
+    <t>DF13-6S-1.25C (LED cable housing)</t>
+  </si>
+  <si>
+    <t>DF13-8S-1.25C (comms cable housing)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/hirose-electric-co-ltd/H4BBT-10112-B8/H4BBT-10112-B8-ND/425398</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/hirose-electric-co-ltd/DF13-8S-1-25C/H2185-ND/241755</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=DF13-6S-1.25C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF13-8S-1.25C </t>
+  </si>
+  <si>
+    <t>H4BBT-10112-B8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/molex/0050579402/WM2900-ND/115029</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/molex/0797580011/WM15222-ND/6187843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WM2510-ND </t>
+  </si>
+  <si>
+    <t>WM2900-ND  (power cable housing 2 pos)</t>
+  </si>
+  <si>
+    <t>WM15222-ND (precrimped power cable female to female 300mm)</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/32823538158.html?spm=a2g0s.9042311.0.0.14e44c4dgOtgtt</t>
+  </si>
+  <si>
+    <t>6-pin with 20mm PCB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED Star </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 pcs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DF13 precrimped cables 300mm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 pcs</t>
+    </r>
+  </si>
+  <si>
+    <t>Extras für 2 vollständige Geräte (4 PCBs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +979,39 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -959,16 +1039,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1306,11 +1394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1323,7 +1411,7 @@
     <col min="6" max="6" width="28.7265625" customWidth="1"/>
     <col min="7" max="7" width="25.26953125" customWidth="1"/>
     <col min="8" max="8" width="30.81640625" customWidth="1"/>
-    <col min="9" max="9" width="57.81640625" customWidth="1"/>
+    <col min="9" max="9" width="72.54296875" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="49.453125" customWidth="1"/>
@@ -1331,28 +1419,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="K1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="L1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1373,23 +1461,23 @@
         <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">J2*F2</f>
+        <f t="shared" ref="K2:K30" si="0">J2*F2</f>
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1406,11 +1494,11 @@
         <v>64</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F61" si="1">E3*2</f>
+        <f t="shared" ref="F3:F60" si="1">E3*2</f>
         <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1420,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1441,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1469,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1478,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1499,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1509,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1523,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>103</v>
@@ -1533,13 +1621,13 @@
         <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="J7">
         <v>7.9000000000000001E-2</v>
@@ -1549,7 +1637,7 @@
         <v>16.274000000000001</v>
       </c>
       <c r="L7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1570,7 +1658,7 @@
         <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1598,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1629,13 +1717,13 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J10">
         <v>0.24</v>
@@ -1666,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J11">
         <v>5.3999999999999999E-2</v>
@@ -1703,13 +1791,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H12">
         <v>61201021621</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J12">
         <v>0.38</v>
@@ -1740,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J13">
         <v>0.68</v>
@@ -1756,12 +1844,21 @@
         <v>1.36</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1773,60 +1870,69 @@
       <c r="G14" t="s">
         <v>183</v>
       </c>
-      <c r="H14" t="s">
-        <v>186</v>
+      <c r="H14">
+        <v>705550071</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J14">
-        <v>0.24</v>
+        <v>0.89</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15">
-        <v>705550071</v>
+        <v>180</v>
+      </c>
+      <c r="H15" t="s">
+        <v>186</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J15">
-        <v>0.89</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1.78</v>
+        <v>4.3360000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1836,139 +1942,148 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
         <v>188</v>
       </c>
-      <c r="H16">
-        <v>50579402</v>
-      </c>
-      <c r="I16" t="s">
-        <v>194</v>
-      </c>
       <c r="J16">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J17">
-        <v>0.54200000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4.3360000000000003</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J18">
-        <v>0.247</v>
+        <v>0.46</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1.976</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J19">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="L19" t="s">
-        <v>202</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1978,108 +2093,107 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
         <v>200</v>
       </c>
-      <c r="H20" t="s">
-        <v>203</v>
-      </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J20">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21">
-        <v>0.46</v>
-      </c>
-      <c r="K21">
+      <c r="G21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K21" s="7">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>113.99999999999999</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J22">
-        <v>0.72</v>
+        <v>9.1</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>2.88</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2088,107 +2202,82 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G23" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" t="s">
-        <v>211</v>
-      </c>
       <c r="I23" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23">
-        <v>0.72</v>
+        <v>279</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K24" s="1">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>113.99999999999999</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
-      </c>
-      <c r="J25">
-        <v>9.1</v>
+        <v>279</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>18.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2198,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
@@ -2207,16 +2296,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2226,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
@@ -2235,26 +2324,26 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
@@ -2263,44 +2352,53 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" t="s">
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>206</v>
+      </c>
+      <c r="J29">
+        <v>0.09</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2309,91 +2407,91 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>210</v>
+      </c>
+      <c r="J30">
+        <v>0.09</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K31:K63" si="2">J31*F31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" t="s">
-        <v>219</v>
-      </c>
       <c r="I32" t="s">
-        <v>217</v>
-      </c>
-      <c r="J32">
-        <v>0.09</v>
+        <v>279</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2403,72 +2501,81 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J33">
         <v>0.09</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" t="s">
+        <v>214</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>213</v>
+      </c>
+      <c r="J34">
+        <v>0.09</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="2">J34*F34</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.18</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
@@ -2477,16 +2584,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2496,13 +2603,13 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="H36" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J36">
         <v>0.09</v>
@@ -2514,16 +2621,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2533,13 +2640,13 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H37" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J37">
         <v>0.09</v>
@@ -2551,634 +2658,609 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" t="s">
+        <v>221</v>
       </c>
       <c r="I38" t="s">
-        <v>291</v>
+        <v>222</v>
+      </c>
+      <c r="J38">
+        <v>0.09</v>
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J39">
         <v>0.09</v>
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>231</v>
-      </c>
-      <c r="H40" t="s">
-        <v>232</v>
-      </c>
-      <c r="I40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J40">
-        <v>0.09</v>
-      </c>
-      <c r="K40">
+        <v>123</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40" s="1">
+        <v>19.77</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="2"/>
-        <v>0.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
-        <v>233</v>
-      </c>
-      <c r="I41" t="s">
-        <v>234</v>
-      </c>
-      <c r="J41">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H42" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="I42" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J42">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J43" s="1">
-        <v>19.77</v>
-      </c>
-      <c r="K43" s="1">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43">
+        <v>0.87</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="1"/>
+        <v>1.74</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K44">
+        <v>138</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32.32</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J45">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I46" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J46">
-        <v>0.87</v>
+        <v>5.79</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>1.74</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="1">
+        <v>150</v>
+      </c>
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J47" s="1">
-        <v>8.08</v>
-      </c>
-      <c r="K47" s="1">
+      <c r="G47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" t="s">
+        <v>239</v>
+      </c>
+      <c r="I47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J47">
+        <v>2.56</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="2"/>
-        <v>32.32</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>289</v>
+        <v>10.24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I48" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J48">
-        <v>0.11</v>
+        <v>0.73</v>
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>274</v>
+      </c>
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="D49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G49" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" t="s">
-        <v>249</v>
-      </c>
-      <c r="I49" t="s">
-        <v>282</v>
-      </c>
-      <c r="J49">
-        <v>5.79</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>23.16</v>
+      <c r="L49" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J50">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>10.24</v>
-      </c>
-      <c r="L50" t="s">
-        <v>290</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J51">
-        <v>0.73</v>
+        <v>1.08</v>
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
-        <v>4.38</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" t="s">
-        <v>286</v>
-      </c>
-      <c r="E52" s="1">
-        <v>100</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="K52" s="1">
+      <c r="K52">
         <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" t="s">
-        <v>256</v>
-      </c>
-      <c r="I53" t="s">
-        <v>257</v>
-      </c>
-      <c r="J53">
-        <v>1.76</v>
+      <c r="A53" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>10.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" t="s">
-        <v>166</v>
-      </c>
       <c r="C54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
-      </c>
-      <c r="H54" t="s">
-        <v>259</v>
+        <v>183</v>
+      </c>
+      <c r="H54">
+        <v>50579402</v>
       </c>
       <c r="I54" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="J54">
-        <v>1.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>2.16</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55">
+        <v>797580011</v>
+      </c>
+      <c r="I55" t="s">
+        <v>290</v>
+      </c>
+      <c r="J55">
+        <v>0.66</v>
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C56" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="5">
+        <v>16020102</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
@@ -3187,95 +3269,128 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="G57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H57" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="J57">
-        <v>3.5999999999999997E-2</v>
+        <v>1.6</v>
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>2.3039999999999998</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
+        <v>296</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58">
-        <v>16020102</v>
-      </c>
-      <c r="I58" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>295</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="J58">
-        <v>0.14000000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" t="s">
+        <v>288</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J59">
+        <v>0.52</v>
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" t="s">
+        <v>287</v>
+      </c>
+      <c r="I60" t="s">
+        <v>285</v>
+      </c>
+      <c r="J60">
+        <v>0.23</v>
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>282</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E61</f>
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>180</v>
+      </c>
+      <c r="H61" t="s">
+        <v>187</v>
+      </c>
+      <c r="I61" t="s">
+        <v>286</v>
+      </c>
+      <c r="J61">
+        <v>0.16</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F62">
-        <f t="shared" ref="F3:F62" si="3">E62*4</f>
-        <v>0</v>
-      </c>
       <c r="K62">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3288,28 +3403,21 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
+        <v>250</v>
+      </c>
       <c r="K64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="K65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J66" t="s">
-        <v>262</v>
-      </c>
-      <c r="K66">
-        <f>SUM(K2:K65)</f>
-        <v>408.36200000000002</v>
+        <f>SUM(K2:K63)</f>
+        <v>420.83199999999999</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I59" r:id="rId1" xr:uid="{45B295B3-55EB-424A-BB95-CFC102B8DA90}"/>
+    <hyperlink ref="I56" r:id="rId2" xr:uid="{05502FC4-64A9-4B61-B9F8-E4BDC7A132F1}"/>
+    <hyperlink ref="I57" r:id="rId3" xr:uid="{E5FFCF0C-5508-413C-AB03-BFA0807A5903}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>